--- a/biology/Botanique/Tower_Green/Tower_Green.xlsx
+++ b/biology/Botanique/Tower_Green/Tower_Green.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tower Green est une étendue de pelouse située à l'intérieur de la Tour de Londres, entre les appartements de la Reine[1] et la chapelle royale, où plusieurs nobles britanniques ont été exécutés à l’abri des regards. Dix personnes y ont été décapitées, dont les Reines consort Anne Boleyn, seconde épouse d’Henry VIII et Catherine Howard, sa cinquième épouse, ainsi que Jeanne Grey, la Reine de neuf jours qui avait à peine 16 ans lors de son exécution, Jane Boleyn, vicomtesse Rochford et belle-sœur d'Anne Boleyn ou encore Margaret Pole comtesse de Salisbury et dernière des Plantagenêt.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tower Green est une étendue de pelouse située à l'intérieur de la Tour de Londres, entre les appartements de la Reine et la chapelle royale, où plusieurs nobles britanniques ont été exécutés à l’abri des regards. Dix personnes y ont été décapitées, dont les Reines consort Anne Boleyn, seconde épouse d’Henry VIII et Catherine Howard, sa cinquième épouse, ainsi que Jeanne Grey, la Reine de neuf jours qui avait à peine 16 ans lors de son exécution, Jane Boleyn, vicomtesse Rochford et belle-sœur d'Anne Boleyn ou encore Margaret Pole comtesse de Salisbury et dernière des Plantagenêt.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Les exécutions capitales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La peine de mort par décapitation à Tower Green, dans l'enceinte de la Tour, était considérée comme un privilège de rang qui épargnait ainsi à la noblesse les insultes et raillerie de la foule. Les prisonniers de la Tour de Londres étaient généralement exécutés en public sur Tower Hill, juste à l'extérieur de la forteresse, ou sur le site de Tyburn, à l’ouest de la ville. Un mémorial, édifié au milieu de la pelouse, se présente sous la forme d'un coussin de verre reposant sur deux disques polis. Il porte l'inscription suivante : « Let them rest in peace as we pass through the generations around their struggles and their courage ». Le pavage de granit sur lequel repose le mémorial a été spécialement créé sur ordre de la reine Victoria[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La peine de mort par décapitation à Tower Green, dans l'enceinte de la Tour, était considérée comme un privilège de rang qui épargnait ainsi à la noblesse les insultes et raillerie de la foule. Les prisonniers de la Tour de Londres étaient généralement exécutés en public sur Tower Hill, juste à l'extérieur de la forteresse, ou sur le site de Tyburn, à l’ouest de la ville. Un mémorial, édifié au milieu de la pelouse, se présente sous la forme d'un coussin de verre reposant sur deux disques polis. Il porte l'inscription suivante : « Let them rest in peace as we pass through the generations around their struggles and their courage ». Le pavage de granit sur lequel repose le mémorial a été spécialement créé sur ordre de la reine Victoria.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Moyen Âge, un cimetière se trouvait à l’emplacement de Tower Green. Au XIXe siècle, à la suite du relèvement des pavés de granit, des fouilles superficielles ont révélé les vestiges d'un bâtiment qui se trouvait à cet endroit, conformément aux plans historiques de la Tour de Londres. Il a été démoli en 1684, mais reconstruit en 1685. Il fut à nouveau démoli peu de temps après. Il semble que le bâtiment ait été utilisé à l'époque comme poste de garde pour les prédécesseurs des Yeomen Warders. Les exécutions au Tower Green se déroulaient à l'intérieur de ce bâtiment afin de préserver l'intimité des nobles[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Moyen Âge, un cimetière se trouvait à l’emplacement de Tower Green. Au XIXe siècle, à la suite du relèvement des pavés de granit, des fouilles superficielles ont révélé les vestiges d'un bâtiment qui se trouvait à cet endroit, conformément aux plans historiques de la Tour de Londres. Il a été démoli en 1684, mais reconstruit en 1685. Il fut à nouveau démoli peu de temps après. Il semble que le bâtiment ait été utilisé à l'époque comme poste de garde pour les prédécesseurs des Yeomen Warders. Les exécutions au Tower Green se déroulaient à l'intérieur de ce bâtiment afin de préserver l'intimité des nobles.
 </t>
         </is>
       </c>
@@ -573,16 +589,18 @@
           <t>Exécutions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les nobles suivants ont été décapités à Tower Green à la hache, sauf Anne Boleyn qui a été décapitée à l'épée) :
-William Hastings, 1er Baron Hastings, en 1483[2].
-La Reine Anne Boleyn, seconde femme du roi Henry VIII, 19 mai 1536[4],[5].
-Margaret Pole, Comtesse de Salisbury, le 27 mai 1541[6].
-La Reine Catherine Howard, cinquième femme de Henry VIII, le 13 février 1542[7].
-Jane Boleyn, Vicomtesse Rochford, par ordre de Henry VIII le 13 février 1542[8],[9].
-Lady Jane Grey, la "Reine de neuf jours", le 12 février 1554[10],[11].
-Robert Devereux, 2nd comte d'Essex pour trahison le 25 février 1601[12].
+William Hastings, 1er Baron Hastings, en 1483.
+La Reine Anne Boleyn, seconde femme du roi Henry VIII, 19 mai 1536,.
+Margaret Pole, Comtesse de Salisbury, le 27 mai 1541.
+La Reine Catherine Howard, cinquième femme de Henry VIII, le 13 février 1542.
+Jane Boleyn, Vicomtesse Rochford, par ordre de Henry VIII le 13 février 1542,.
+Lady Jane Grey, la "Reine de neuf jours", le 12 février 1554,.
+Robert Devereux, 2nd comte d'Essex pour trahison le 25 février 1601.
 Les sept corps ont été enterrés dans la Chapelle royale de Saint-Pierre-aux-Liens
 En plus des sept, on trouve également trois noms supplémentaires sur le mémorial :  Malcolm Macpherson, Samuel Macpherson et Farquhar Shaw. Il s'agit de soldats du Black Watch (Royal Highland Regiment) qui ont été reconnus coupables de mutinerie et ont été exécutés à Tower Green le 19 juillet 1743 par un peloton d'exécution composés de douze hommes désignés parmi leurs compagnons d'arme.
 </t>
